--- a/data/msme-profile.xlsx
+++ b/data/msme-profile.xlsx
@@ -1,23 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Data Science Work\asean-datascience\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C0B802-8B0B-4EB9-8FB5-89A3D4359B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="msme-ratio" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="msme-growth" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="msme-sector" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="msme-employed" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="msme-gdp" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="msme-loan" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="msme-finance" sheetId="7" r:id="rId10"/>
+    <sheet name="msme-ratio" sheetId="1" r:id="rId1"/>
+    <sheet name="msme-growth" sheetId="2" r:id="rId2"/>
+    <sheet name="msme-sector" sheetId="3" r:id="rId3"/>
+    <sheet name="msme-employed" sheetId="4" r:id="rId4"/>
+    <sheet name="msme-gdp" sheetId="5" r:id="rId5"/>
+    <sheet name="msme-loan" sheetId="6" r:id="rId6"/>
+    <sheet name="msme-finance" sheetId="7" r:id="rId7"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="25">
   <si>
     <t>Malaysia</t>
   </si>
@@ -87,51 +109,71 @@
   <si>
     <t>Viet Nam</t>
   </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -139,7 +181,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -149,99 +191,62 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -431,646 +436,650 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
-        <v>2003.0</v>
-      </c>
-      <c r="C1" s="2">
-        <f t="shared" ref="C1:T1" si="1">B1+1</f>
+        <v>2003</v>
+      </c>
+      <c r="C1" s="1">
+        <f t="shared" ref="C1:T1" si="0">B1+1</f>
         <v>2004</v>
       </c>
-      <c r="D1" s="2">
-        <f t="shared" si="1"/>
+      <c r="D1" s="1">
+        <f t="shared" si="0"/>
         <v>2005</v>
       </c>
-      <c r="E1" s="2">
-        <f t="shared" si="1"/>
+      <c r="E1" s="1">
+        <f t="shared" si="0"/>
         <v>2006</v>
       </c>
-      <c r="F1" s="2">
-        <f t="shared" si="1"/>
+      <c r="F1" s="1">
+        <f t="shared" si="0"/>
         <v>2007</v>
       </c>
-      <c r="G1" s="2">
-        <f t="shared" si="1"/>
+      <c r="G1" s="1">
+        <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="H1" s="2">
-        <f t="shared" si="1"/>
+      <c r="H1" s="1">
+        <f t="shared" si="0"/>
         <v>2009</v>
       </c>
-      <c r="I1" s="2">
-        <f t="shared" si="1"/>
+      <c r="I1" s="1">
+        <f t="shared" si="0"/>
         <v>2010</v>
       </c>
-      <c r="J1" s="2">
-        <f t="shared" si="1"/>
+      <c r="J1" s="1">
+        <f t="shared" si="0"/>
         <v>2011</v>
       </c>
-      <c r="K1" s="2">
-        <f t="shared" si="1"/>
+      <c r="K1" s="1">
+        <f t="shared" si="0"/>
         <v>2012</v>
       </c>
-      <c r="L1" s="2">
-        <f t="shared" si="1"/>
+      <c r="L1" s="1">
+        <f t="shared" si="0"/>
         <v>2013</v>
       </c>
-      <c r="M1" s="2">
-        <f t="shared" si="1"/>
+      <c r="M1" s="1">
+        <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="N1" s="2">
-        <f t="shared" si="1"/>
+      <c r="N1" s="1">
+        <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="O1" s="2">
-        <f t="shared" si="1"/>
+      <c r="O1" s="1">
+        <f t="shared" si="0"/>
         <v>2016</v>
       </c>
-      <c r="P1" s="2">
-        <f t="shared" si="1"/>
+      <c r="P1" s="1">
+        <f t="shared" si="0"/>
         <v>2017</v>
       </c>
-      <c r="Q1" s="2">
-        <f t="shared" si="1"/>
+      <c r="Q1" s="1">
+        <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="R1" s="2">
-        <f t="shared" si="1"/>
+      <c r="R1" s="1">
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="S1" s="2">
-        <f t="shared" si="1"/>
+      <c r="S1" s="1">
+        <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="T1" s="2">
-        <f t="shared" si="1"/>
+      <c r="T1" s="1">
+        <f t="shared" si="0"/>
         <v>2021</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>99.2</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="3">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="2">
         <v>98.5</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="3">
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="2">
         <v>98.5</v>
       </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4">
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3">
         <v>97.2</v>
       </c>
-      <c r="T2" s="5"/>
-    </row>
-    <row r="3">
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="4">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="3">
         <v>99.5</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="3">
         <v>99.4</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="5">
         <v>99.5</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="5">
         <v>99.5</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3" s="5">
         <v>99.5</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3" s="5">
         <v>99.5</v>
       </c>
-      <c r="S3" s="6">
+      <c r="S3" s="5">
         <v>99.5</v>
       </c>
-      <c r="T3" s="5"/>
-    </row>
-    <row r="4">
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="7">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4">
         <v>99.8</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="4">
         <v>94.7</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="4">
         <v>94.9</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="4">
         <v>94.4</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="4">
         <v>93.7</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="4">
         <v>93.9</v>
       </c>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-    </row>
-    <row r="5">
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="7">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
         <v>99.6</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="4">
         <v>99.7</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="4">
         <v>99.8</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="4">
         <v>99.6</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="4">
         <v>99.8</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="4">
         <v>97.2</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="4">
         <v>97.2</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="4">
         <v>99.7</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="4">
         <v>99.7</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="4">
         <v>99.7</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="4">
         <v>99.8</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="4">
         <v>99.8</v>
       </c>
-      <c r="R5" s="7">
+      <c r="R5" s="4">
         <v>99.5</v>
       </c>
-      <c r="S5" s="7">
+      <c r="S5" s="4">
         <v>99.5</v>
       </c>
-      <c r="T5" s="5"/>
-    </row>
-    <row r="6">
+      <c r="T5" s="4"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="7">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
         <v>96.3</v>
       </c>
-      <c r="G6" s="7">
-        <v>97.0</v>
-      </c>
-      <c r="H6" s="7">
+      <c r="G6" s="4">
+        <v>97</v>
+      </c>
+      <c r="H6" s="4">
         <v>97.4</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="4">
         <v>97.5</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="4">
         <v>97.6</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="4">
         <v>97.7</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="4">
         <v>97.8</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="4">
         <v>97.9</v>
       </c>
-      <c r="N6" s="7">
-        <v>98.0</v>
-      </c>
-      <c r="O6" s="7">
-        <v>98.0</v>
-      </c>
-      <c r="P6" s="7">
+      <c r="N6" s="4">
+        <v>98</v>
+      </c>
+      <c r="O6" s="4">
+        <v>98</v>
+      </c>
+      <c r="P6" s="4">
         <v>97.1</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="Q6" s="4">
         <v>97.2</v>
       </c>
-      <c r="R6" s="7">
+      <c r="R6" s="4">
         <v>97.4</v>
       </c>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-    </row>
-    <row r="7">
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="7">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4">
         <v>99.7</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="4">
         <v>99.7</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="4">
         <v>99.6</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="4">
         <v>99.6</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="4">
         <v>99.6</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="4">
         <v>99.6</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="4">
         <v>99.6</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="4">
         <v>99.6</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="4">
         <v>99.6</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="4">
         <v>99.5</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="4">
         <v>99.6</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="4">
         <v>99.6</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Q7" s="4">
         <v>99.5</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R7" s="4">
         <v>99.5</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S7" s="4">
         <v>99.5</v>
       </c>
-      <c r="T7" s="7">
+      <c r="T7" s="4">
         <v>99.6</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="7">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4">
         <v>99.97</v>
       </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="s">
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I9" s="1">
         <v>97.5</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="6">
         <v>96.6</v>
       </c>
-      <c r="O9" s="8">
-        <v>97.0</v>
-      </c>
-      <c r="P9" s="8">
+      <c r="O9" s="6">
+        <v>97</v>
+      </c>
+      <c r="P9" s="6">
         <v>97.2</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="6">
         <v>97.3</v>
       </c>
-      <c r="R9" s="8">
+      <c r="R9" s="6">
         <v>97.3</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9">
         <v>99.8</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="9">
+      <c r="I10" s="7"/>
+      <c r="J10" s="1">
         <v>99.8</v>
       </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="9">
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="1">
         <v>99.8</v>
       </c>
-      <c r="S10" s="13"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="9" t="s">
+      <c r="S10" s="10"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="9">
         <v>99.99</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="9">
         <v>99.99</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="9">
         <v>99.99</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="9">
         <v>99.99</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="9">
         <v>99.99</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N11" s="9">
         <v>99.99</v>
       </c>
-      <c r="O11" s="14">
+      <c r="O11" s="9">
         <v>99.99</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="6">
         <v>99.99</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q11" s="6">
         <v>99.99</v>
       </c>
-      <c r="R11" s="8">
+      <c r="R11" s="6">
         <v>99.99</v>
       </c>
-      <c r="S11" s="15"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="14" t="s">
+      <c r="S11" s="11"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9">
         <v>99.8</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9">
         <v>99.8</v>
       </c>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14">
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9">
         <v>99.8</v>
       </c>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14">
+      <c r="R12" s="9"/>
+      <c r="S12" s="9">
         <v>99.8</v>
       </c>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
-    </row>
-    <row r="14">
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-    </row>
-    <row r="15">
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
-        <v>2003.0</v>
-      </c>
-      <c r="C1" s="2">
-        <f t="shared" ref="C1:T1" si="1">B1+1</f>
+        <v>2003</v>
+      </c>
+      <c r="C1" s="1">
+        <f t="shared" ref="C1:T1" si="0">B1+1</f>
         <v>2004</v>
       </c>
-      <c r="D1" s="2">
-        <f t="shared" si="1"/>
+      <c r="D1" s="1">
+        <f t="shared" si="0"/>
         <v>2005</v>
       </c>
-      <c r="E1" s="2">
-        <f t="shared" si="1"/>
+      <c r="E1" s="1">
+        <f t="shared" si="0"/>
         <v>2006</v>
       </c>
-      <c r="F1" s="2">
-        <f t="shared" si="1"/>
+      <c r="F1" s="1">
+        <f t="shared" si="0"/>
         <v>2007</v>
       </c>
-      <c r="G1" s="2">
-        <f t="shared" si="1"/>
+      <c r="G1" s="1">
+        <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="H1" s="2">
-        <f t="shared" si="1"/>
+      <c r="H1" s="1">
+        <f t="shared" si="0"/>
         <v>2009</v>
       </c>
-      <c r="I1" s="2">
-        <f t="shared" si="1"/>
+      <c r="I1" s="1">
+        <f t="shared" si="0"/>
         <v>2010</v>
       </c>
-      <c r="J1" s="2">
-        <f t="shared" si="1"/>
+      <c r="J1" s="1">
+        <f t="shared" si="0"/>
         <v>2011</v>
       </c>
-      <c r="K1" s="2">
-        <f t="shared" si="1"/>
+      <c r="K1" s="1">
+        <f t="shared" si="0"/>
         <v>2012</v>
       </c>
-      <c r="L1" s="2">
-        <f t="shared" si="1"/>
+      <c r="L1" s="1">
+        <f t="shared" si="0"/>
         <v>2013</v>
       </c>
-      <c r="M1" s="2">
-        <f t="shared" si="1"/>
+      <c r="M1" s="1">
+        <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="N1" s="2">
-        <f t="shared" si="1"/>
+      <c r="N1" s="1">
+        <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="O1" s="2">
-        <f t="shared" si="1"/>
+      <c r="O1" s="1">
+        <f t="shared" si="0"/>
         <v>2016</v>
       </c>
-      <c r="P1" s="2">
-        <f t="shared" si="1"/>
+      <c r="P1" s="1">
+        <f t="shared" si="0"/>
         <v>2017</v>
       </c>
-      <c r="Q1" s="2">
-        <f t="shared" si="1"/>
+      <c r="Q1" s="1">
+        <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="R1" s="2">
-        <f t="shared" si="1"/>
+      <c r="R1" s="1">
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="S1" s="2">
-        <f t="shared" si="1"/>
+      <c r="S1" s="1">
+        <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="T1" s="2">
-        <f t="shared" si="1"/>
+      <c r="T1" s="1">
+        <f t="shared" si="0"/>
         <v>2021</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N2" s="1">
         <v>7.3</v>
       </c>
       <c r="S2" s="1">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1093,7 +1102,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1101,10 +1110,10 @@
         <v>3.13</v>
       </c>
       <c r="P4" s="1">
-        <v>4.65</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>4.6500000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1121,7 +1130,7 @@
         <v>0.6</v>
       </c>
       <c r="J5" s="1">
-        <v>-9.2</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="K5" s="1">
         <v>3.2</v>
@@ -1133,7 +1142,7 @@
         <v>0.8</v>
       </c>
       <c r="N5" s="1">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O5" s="1">
         <v>8.6</v>
@@ -1142,21 +1151,21 @@
         <v>1.3</v>
       </c>
       <c r="Q5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="1">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="S5" s="1">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="1">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="G6" s="1">
         <v>29.8</v>
@@ -1168,7 +1177,7 @@
         <v>18.2</v>
       </c>
       <c r="J6" s="1">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="K6" s="1">
         <v>6.9</v>
@@ -1180,7 +1189,7 @@
         <v>7.9</v>
       </c>
       <c r="N6" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="O6" s="1">
         <v>14.2</v>
@@ -1195,7 +1204,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1224,13 +1233,13 @@
         <v>0.6</v>
       </c>
       <c r="M7" s="1">
-        <v>-4.9</v>
+        <v>-4.9000000000000004</v>
       </c>
       <c r="N7" s="1">
         <v>1.7</v>
       </c>
       <c r="O7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="1">
         <v>8.4</v>
@@ -1245,178 +1254,187 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8" s="9">
         <v>-3.3</v>
       </c>
-      <c r="O8" s="14">
-        <v>9.0</v>
-      </c>
-      <c r="P8" s="14">
+      <c r="O8" s="9">
+        <v>9</v>
+      </c>
+      <c r="P8" s="9">
         <v>2.7</v>
       </c>
-      <c r="Q8" s="14">
+      <c r="Q8" s="9">
         <v>0.6</v>
       </c>
-      <c r="R8" s="14">
+      <c r="R8" s="9">
         <v>1.3</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="17">
-        <v>23.0</v>
-      </c>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18">
+      <c r="J9" s="13">
+        <v>23</v>
+      </c>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13">
         <v>10.9</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="1">
         <v>2.5</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="1">
         <v>2.6</v>
       </c>
-      <c r="K10" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="L10" s="9">
+      <c r="K10" s="1">
+        <v>2</v>
+      </c>
+      <c r="L10" s="1">
         <v>2.4</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="1">
         <v>2.4</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="1">
         <v>2.4</v>
       </c>
-      <c r="O10" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="P10" s="9">
+      <c r="O10" s="1">
+        <v>4</v>
+      </c>
+      <c r="P10" s="1">
         <v>2.1</v>
       </c>
-      <c r="Q10" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="R10" s="9">
+      <c r="Q10" s="1">
+        <v>2</v>
+      </c>
+      <c r="R10" s="1">
         <v>1.9</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="1">
         <v>-1.7</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="Q11" s="1">
         <v>0.05</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:U70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="C1" s="1">
-        <v>2003.0</v>
-      </c>
-      <c r="D1" s="2">
-        <f t="shared" ref="D1:U1" si="1">C1+1</f>
+        <v>2003</v>
+      </c>
+      <c r="D1" s="1">
+        <f t="shared" ref="D1:U1" si="0">C1+1</f>
         <v>2004</v>
       </c>
-      <c r="E1" s="2">
-        <f t="shared" si="1"/>
+      <c r="E1" s="1">
+        <f t="shared" si="0"/>
         <v>2005</v>
       </c>
-      <c r="F1" s="2">
-        <f t="shared" si="1"/>
+      <c r="F1" s="1">
+        <f t="shared" si="0"/>
         <v>2006</v>
       </c>
-      <c r="G1" s="2">
-        <f t="shared" si="1"/>
+      <c r="G1" s="1">
+        <f t="shared" si="0"/>
         <v>2007</v>
       </c>
-      <c r="H1" s="2">
-        <f t="shared" si="1"/>
+      <c r="H1" s="1">
+        <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="I1" s="2">
-        <f t="shared" si="1"/>
+      <c r="I1" s="1">
+        <f t="shared" si="0"/>
         <v>2009</v>
       </c>
-      <c r="J1" s="2">
-        <f t="shared" si="1"/>
+      <c r="J1" s="1">
+        <f t="shared" si="0"/>
         <v>2010</v>
       </c>
-      <c r="K1" s="2">
-        <f t="shared" si="1"/>
+      <c r="K1" s="1">
+        <f t="shared" si="0"/>
         <v>2011</v>
       </c>
-      <c r="L1" s="2">
-        <f t="shared" si="1"/>
+      <c r="L1" s="1">
+        <f t="shared" si="0"/>
         <v>2012</v>
       </c>
-      <c r="M1" s="2">
-        <f t="shared" si="1"/>
+      <c r="M1" s="1">
+        <f t="shared" si="0"/>
         <v>2013</v>
       </c>
-      <c r="N1" s="2">
-        <f t="shared" si="1"/>
+      <c r="N1" s="1">
+        <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="O1" s="2">
-        <f t="shared" si="1"/>
+      <c r="O1" s="1">
+        <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="P1" s="2">
-        <f t="shared" si="1"/>
+      <c r="P1" s="1">
+        <f t="shared" si="0"/>
         <v>2016</v>
       </c>
-      <c r="Q1" s="2">
-        <f t="shared" si="1"/>
+      <c r="Q1" s="1">
+        <f t="shared" si="0"/>
         <v>2017</v>
       </c>
-      <c r="R1" s="2">
-        <f t="shared" si="1"/>
+      <c r="R1" s="1">
+        <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="S1" s="2">
-        <f t="shared" si="1"/>
+      <c r="S1" s="1">
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="T1" s="2">
-        <f t="shared" si="1"/>
+      <c r="T1" s="1">
+        <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="U1" s="2">
-        <f t="shared" si="1"/>
+      <c r="U1" s="1">
+        <f t="shared" si="0"/>
         <v>2021</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1454,10 +1472,10 @@
         <v>0.9</v>
       </c>
       <c r="P2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="1">
         <v>0.9</v>
@@ -1472,7 +1490,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1528,7 +1546,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1542,19 +1560,19 @@
         <v>1.2</v>
       </c>
       <c r="H4" s="1">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I4" s="1">
         <v>1.2</v>
       </c>
       <c r="J4" s="1">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="K4" s="1">
         <v>3.1</v>
       </c>
       <c r="L4" s="1">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="M4" s="1">
         <v>4.7</v>
@@ -1572,19 +1590,19 @@
         <v>4.8</v>
       </c>
       <c r="R4" s="1">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="S4" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="T4" s="1">
         <v>3.9</v>
       </c>
       <c r="U4" s="1">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1640,7 +1658,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1663,7 +1681,7 @@
         <v>47.9</v>
       </c>
       <c r="K6" s="1">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="L6" s="1">
         <v>46.4</v>
@@ -1681,7 +1699,7 @@
         <v>46.1</v>
       </c>
       <c r="Q6" s="1">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="R6" s="1">
         <v>46.3</v>
@@ -1696,7 +1714,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1704,16 +1722,16 @@
         <v>16</v>
       </c>
       <c r="F7" s="1">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="G7" s="1">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="H7" s="1">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="I7" s="1">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="J7" s="1">
         <v>34.4</v>
@@ -1722,7 +1740,7 @@
         <v>35.1</v>
       </c>
       <c r="L7" s="1">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="M7" s="1">
         <v>34.9</v>
@@ -1731,10 +1749,10 @@
         <v>35.1</v>
       </c>
       <c r="O7" s="1">
-        <v>34.8</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="P7" s="1">
-        <v>34.8</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="Q7" s="1">
         <v>35.1</v>
@@ -1746,13 +1764,13 @@
         <v>36.5</v>
       </c>
       <c r="T7" s="1">
-        <v>36.3</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="U7" s="1">
-        <v>34.2</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>34.200000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1808,7 +1826,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1822,13 +1840,13 @@
         <v>1.2</v>
       </c>
       <c r="O9" s="1">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="T9" s="1">
         <v>1.7</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1839,16 +1857,16 @@
         <v>7.2</v>
       </c>
       <c r="J10" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="O10" s="1">
         <v>5.3</v>
       </c>
       <c r="T10" s="1">
-        <v>5.1</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1865,7 +1883,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1885,7 +1903,7 @@
         <v>85.5</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1902,7 +1920,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -1913,22 +1931,22 @@
         <v>1.6</v>
       </c>
       <c r="H14" s="1">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="1">
         <v>0.9</v>
       </c>
       <c r="K14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="1">
         <v>0.9</v>
@@ -1940,16 +1958,16 @@
         <v>0.9</v>
       </c>
       <c r="Q14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="1">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="S14" s="1">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1957,7 +1975,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="1">
-        <v>18.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="H15" s="1">
         <v>18.2</v>
@@ -1996,7 +2014,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -2031,19 +2049,19 @@
         <v>8.1</v>
       </c>
       <c r="P16" s="1">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="Q16" s="1">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="R16" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="S16" s="1">
         <v>7.9</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -2051,13 +2069,13 @@
         <v>14</v>
       </c>
       <c r="G17" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="H17" s="1">
         <v>14.6</v>
       </c>
       <c r="I17" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="J17" s="1">
         <v>15.5</v>
@@ -2075,10 +2093,10 @@
         <v>13.8</v>
       </c>
       <c r="O17" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="P17" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="Q17" s="1">
         <v>13.2</v>
@@ -2090,7 +2108,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -2110,34 +2128,34 @@
         <v>40.9</v>
       </c>
       <c r="K18" s="1">
-        <v>40.3</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="L18" s="1">
         <v>39.5</v>
       </c>
       <c r="M18" s="1">
-        <v>40.3</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="N18" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="O18" s="1">
-        <v>39.7</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="P18" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="Q18" s="1">
-        <v>39.8</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="R18" s="1">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="S18" s="1">
         <v>37.5</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
@@ -2145,7 +2163,7 @@
         <v>16</v>
       </c>
       <c r="G19" s="1">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="H19" s="1">
         <v>16.7</v>
@@ -2154,10 +2172,10 @@
         <v>17.8</v>
       </c>
       <c r="J19" s="1">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="K19" s="1">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="L19" s="1">
         <v>20.7</v>
@@ -2166,7 +2184,7 @@
         <v>20.6</v>
       </c>
       <c r="N19" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="O19" s="1">
         <v>21.4</v>
@@ -2184,7 +2202,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -2219,10 +2237,10 @@
         <v>1.2</v>
       </c>
       <c r="P20" s="1">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q20" s="1">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R20" s="1">
         <v>1.2</v>
@@ -2231,7 +2249,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -2263,7 +2281,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
@@ -2277,7 +2295,7 @@
         <v>19.3</v>
       </c>
       <c r="I22" s="1">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="J22" s="1">
         <v>18.7</v>
@@ -2289,10 +2307,10 @@
         <v>18.7</v>
       </c>
       <c r="M22" s="1">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="N22" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="O22" s="1">
         <v>18.2</v>
@@ -2304,16 +2322,16 @@
         <v>17.3</v>
       </c>
       <c r="R22" s="1">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="S22" s="1">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
@@ -2321,7 +2339,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
@@ -2329,7 +2347,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
@@ -2379,7 +2397,7 @@
         <v>41.1</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
@@ -2387,22 +2405,22 @@
         <v>16</v>
       </c>
       <c r="G26" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H26" s="1">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="I26" s="1">
         <v>33.6</v>
       </c>
       <c r="J26" s="1">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="K26" s="1">
-        <v>37.7</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="L26" s="1">
-        <v>37.8</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="M26" s="1">
         <v>39.1</v>
@@ -2420,7 +2438,7 @@
         <v>39.6</v>
       </c>
       <c r="R26" s="1">
-        <v>39.8</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="S26" s="1">
         <v>40.1</v>
@@ -2429,7 +2447,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
@@ -2440,7 +2458,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
@@ -2448,7 +2466,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
@@ -2468,7 +2486,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -2479,7 +2497,7 @@
         <v>4.2</v>
       </c>
       <c r="O30" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P30" s="1">
         <v>4.8</v>
@@ -2488,7 +2506,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -2499,7 +2517,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
@@ -2519,7 +2537,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>2</v>
       </c>
@@ -2533,13 +2551,13 @@
         <v>37.4</v>
       </c>
       <c r="P33" s="1">
-        <v>37.3</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="Q33" s="1">
-        <v>38.0</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>2</v>
       </c>
@@ -2550,708 +2568,709 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="8" t="s">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="8" t="s">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M36" s="9">
+      <c r="M36" s="1">
         <v>11.1</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="8" t="s">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M37" s="9">
-        <v>16.9</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="8" t="s">
+      <c r="M37" s="1">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M38" s="9">
+      <c r="M38" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="8" t="s">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M39" s="9">
+      <c r="M39" s="1">
         <v>45.9</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="8" t="s">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M40" s="9">
+      <c r="M40" s="1">
         <v>25.7</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="8" t="s">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M41" s="9">
+      <c r="M41" s="1">
         <v>0.3</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="9" t="s">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J42" s="9">
+      <c r="J42" s="1">
         <v>5.3</v>
       </c>
-      <c r="O42" s="9">
+      <c r="O42" s="1">
         <v>3.9</v>
       </c>
-      <c r="P42" s="9">
+      <c r="P42" s="1">
         <v>3.5</v>
       </c>
-      <c r="Q42" s="9">
+      <c r="Q42" s="1">
         <v>3.3</v>
       </c>
-      <c r="R42" s="9">
+      <c r="R42" s="1">
         <v>2.9</v>
       </c>
-      <c r="S42" s="9">
+      <c r="S42" s="1">
         <v>2.8</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="9" t="s">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J43" s="9">
+      <c r="J43" s="1">
         <v>12.6</v>
       </c>
-      <c r="O43" s="9">
+      <c r="O43" s="1">
         <v>10.7</v>
       </c>
-      <c r="P43" s="9">
+      <c r="P43" s="1">
         <v>11.1</v>
       </c>
-      <c r="Q43" s="9">
+      <c r="Q43" s="1">
         <v>11.1</v>
       </c>
-      <c r="R43" s="9">
+      <c r="R43" s="1">
         <v>10.8</v>
       </c>
-      <c r="S43" s="9">
+      <c r="S43" s="1">
         <v>10.7</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="9" t="s">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J44" s="9">
-        <v>4.6</v>
-      </c>
-      <c r="O44" s="9">
+      <c r="J44" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="O44" s="1">
         <v>4.8</v>
       </c>
-      <c r="P44" s="9">
+      <c r="P44" s="1">
         <v>4.5</v>
       </c>
-      <c r="Q44" s="9">
-        <v>4.4</v>
-      </c>
-      <c r="R44" s="9">
+      <c r="Q44" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R44" s="1">
         <v>5.5</v>
       </c>
-      <c r="S44" s="9">
+      <c r="S44" s="1">
         <v>5.5</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="9" t="s">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J45" s="9">
-        <v>12.0</v>
-      </c>
-      <c r="O45" s="9">
+      <c r="J45" s="1">
+        <v>12</v>
+      </c>
+      <c r="O45" s="1">
         <v>14.5</v>
       </c>
-      <c r="P45" s="9">
+      <c r="P45" s="1">
         <v>12.7</v>
       </c>
-      <c r="Q45" s="9">
+      <c r="Q45" s="1">
         <v>12.4</v>
       </c>
-      <c r="R45" s="9">
+      <c r="R45" s="1">
         <v>10.1</v>
       </c>
-      <c r="S45" s="9">
+      <c r="S45" s="1">
         <v>9.9</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="9" t="s">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J46" s="9">
-        <v>34.7</v>
-      </c>
-      <c r="O46" s="9">
+      <c r="J46" s="1">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="O46" s="1">
         <v>33.9</v>
       </c>
-      <c r="P46" s="9">
+      <c r="P46" s="1">
         <v>34.9</v>
       </c>
-      <c r="Q46" s="9">
+      <c r="Q46" s="1">
         <v>34.9</v>
       </c>
-      <c r="R46" s="9">
-        <v>34.8</v>
-      </c>
-      <c r="S46" s="9">
-        <v>34.7</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="9" t="s">
+      <c r="R46" s="1">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="S46" s="1">
+        <v>34.700000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J47" s="9">
+      <c r="J47" s="1">
         <v>29.7</v>
       </c>
-      <c r="O47" s="9">
+      <c r="O47" s="1">
         <v>30.8</v>
       </c>
-      <c r="P47" s="9">
+      <c r="P47" s="1">
         <v>31.9</v>
       </c>
-      <c r="Q47" s="9">
-        <v>32.3</v>
-      </c>
-      <c r="R47" s="9">
+      <c r="Q47" s="1">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="R47" s="1">
         <v>34.6</v>
       </c>
-      <c r="S47" s="9">
+      <c r="S47" s="1">
         <v>35.1</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="9" t="s">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J48" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="O48" s="9">
+      <c r="J48" s="1">
+        <v>1</v>
+      </c>
+      <c r="O48" s="1">
         <v>1.4</v>
       </c>
-      <c r="P48" s="9">
+      <c r="P48" s="1">
         <v>1.5</v>
       </c>
-      <c r="Q48" s="9">
+      <c r="Q48" s="1">
         <v>1.6</v>
       </c>
-      <c r="R48" s="9">
+      <c r="R48" s="1">
         <v>1.3</v>
       </c>
-      <c r="S48" s="9">
+      <c r="S48" s="1">
         <v>1.3</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="9" t="s">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="9" t="s">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I50" s="9">
+      <c r="I50" s="1">
         <v>21.3</v>
       </c>
-      <c r="K50" s="9">
-        <v>16.0</v>
-      </c>
-      <c r="N50" s="9">
+      <c r="K50" s="1">
+        <v>16</v>
+      </c>
+      <c r="N50" s="1">
         <v>15.2</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="9" t="s">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="9" t="s">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="9" t="s">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I53" s="9">
+      <c r="I53" s="1">
         <v>39.1</v>
       </c>
-      <c r="K53" s="9">
+      <c r="K53" s="1">
         <v>44.2</v>
       </c>
-      <c r="N53" s="9">
+      <c r="N53" s="1">
         <v>46.7</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="9" t="s">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I54" s="9">
+      <c r="I54" s="1">
         <v>39.6</v>
       </c>
-      <c r="K54" s="9">
-        <v>39.8</v>
-      </c>
-      <c r="N54" s="9">
+      <c r="K54" s="1">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="N54" s="1">
         <v>38.1</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="9" t="s">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="9" t="s">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J56" s="9">
-        <v>50.0</v>
-      </c>
-      <c r="K56" s="9">
+      <c r="J56" s="1">
+        <v>50</v>
+      </c>
+      <c r="K56" s="1">
         <v>49.6</v>
       </c>
-      <c r="L56" s="9">
+      <c r="L56" s="1">
         <v>48.8</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="9" t="s">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J57" s="9">
+      <c r="J57" s="1">
         <v>6.2</v>
       </c>
-      <c r="K57" s="9">
+      <c r="K57" s="1">
         <v>6.4</v>
       </c>
-      <c r="L57" s="9">
+      <c r="L57" s="1">
         <v>6.4</v>
       </c>
-      <c r="P57" s="9">
+      <c r="P57" s="1">
         <v>16.7</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="9" t="s">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J58" s="9">
+      <c r="J58" s="1">
         <v>6.5</v>
       </c>
-      <c r="K58" s="9">
+      <c r="K58" s="1">
         <v>6.5</v>
       </c>
-      <c r="L58" s="9">
+      <c r="L58" s="1">
         <v>6.9</v>
       </c>
-      <c r="P58" s="9">
+      <c r="P58" s="1">
         <v>7.3</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="9" t="s">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P59" s="9">
+      <c r="P59" s="1">
         <v>0.9</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="9" t="s">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J60" s="9">
+      <c r="J60" s="1">
         <v>29.4</v>
       </c>
-      <c r="K60" s="9">
+      <c r="K60" s="1">
         <v>29.6</v>
       </c>
-      <c r="L60" s="9">
+      <c r="L60" s="1">
         <v>28.8</v>
       </c>
-      <c r="P60" s="9">
+      <c r="P60" s="1">
         <v>63.5</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="9" t="s">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J61" s="9">
+      <c r="J61" s="1">
         <v>6.3</v>
       </c>
-      <c r="K61" s="9">
+      <c r="K61" s="1">
         <v>6.4</v>
       </c>
-      <c r="L61" s="9">
+      <c r="L61" s="1">
         <v>6.9</v>
       </c>
-      <c r="P61" s="9">
+      <c r="P61" s="1">
         <v>10.7</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="9" t="s">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J62" s="9">
+      <c r="J62" s="1">
         <v>1.6</v>
       </c>
-      <c r="K62" s="9">
+      <c r="K62" s="1">
         <v>1.6</v>
       </c>
-      <c r="L62" s="9">
+      <c r="L62" s="1">
         <v>2.1</v>
       </c>
-      <c r="P62" s="9">
+      <c r="P62" s="1">
         <v>0.9</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F64" s="9">
+      <c r="F64" s="1">
         <v>3.4</v>
       </c>
-      <c r="M64" s="9">
+      <c r="M64" s="1">
         <v>1.7</v>
       </c>
-      <c r="R64" s="9">
-        <v>4.9</v>
-      </c>
-      <c r="T64" s="9">
+      <c r="R64" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="T64" s="1">
         <v>1.4</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="9">
-        <v>19.1</v>
-      </c>
-      <c r="M65" s="9">
+      <c r="F65" s="1">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="M65" s="1">
         <v>12.4</v>
       </c>
-      <c r="R65" s="9">
+      <c r="R65" s="1">
         <v>12.4</v>
       </c>
-      <c r="T65" s="9">
+      <c r="T65" s="1">
         <v>14.7</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="9">
+      <c r="F66" s="1">
         <v>3.7</v>
       </c>
-      <c r="M66" s="9">
+      <c r="M66" s="1">
         <v>3.1</v>
       </c>
-      <c r="R66" s="9">
+      <c r="R66" s="1">
         <v>3.1</v>
       </c>
-      <c r="T66" s="9">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="67">
+      <c r="T66" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="9">
+      <c r="F67" s="1">
         <v>0.5</v>
       </c>
-      <c r="M67" s="9">
+      <c r="M67" s="1">
         <v>0.5</v>
       </c>
-      <c r="R67" s="9">
+      <c r="R67" s="1">
         <v>0.5</v>
       </c>
-      <c r="T67" s="9">
+      <c r="T67" s="1">
         <v>1.7</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F68" s="9">
+      <c r="F68" s="1">
         <v>64.5</v>
       </c>
-      <c r="M68" s="9">
+      <c r="M68" s="1">
         <v>62.9</v>
       </c>
-      <c r="R68" s="9">
+      <c r="R68" s="1">
         <v>62.9</v>
       </c>
-      <c r="T68" s="9">
+      <c r="T68" s="1">
         <v>61.2</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F69" s="9">
-        <v>8.3</v>
-      </c>
-      <c r="M69" s="9">
-        <v>18.9</v>
-      </c>
-      <c r="R69" s="9">
+      <c r="F69" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="M69" s="1">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="R69" s="1">
         <v>12.2</v>
       </c>
-      <c r="T69" s="9">
+      <c r="T69" s="1">
         <v>3.2</v>
       </c>
     </row>
-    <row r="70">
-      <c r="F70" s="9">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F70" s="1">
         <v>0.5</v>
       </c>
-      <c r="M70" s="9">
+      <c r="M70" s="1">
         <v>0.4</v>
       </c>
-      <c r="R70" s="9">
+      <c r="R70" s="1">
         <v>3.9</v>
       </c>
-      <c r="T70" s="9">
+      <c r="T70" s="1">
         <v>14.8</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
-        <v>2003.0</v>
-      </c>
-      <c r="C1" s="2">
-        <f t="shared" ref="C1:T1" si="1">B1+1</f>
+        <v>2003</v>
+      </c>
+      <c r="C1" s="1">
+        <f t="shared" ref="C1:T1" si="0">B1+1</f>
         <v>2004</v>
       </c>
-      <c r="D1" s="2">
-        <f t="shared" si="1"/>
+      <c r="D1" s="1">
+        <f t="shared" si="0"/>
         <v>2005</v>
       </c>
-      <c r="E1" s="2">
-        <f t="shared" si="1"/>
+      <c r="E1" s="1">
+        <f t="shared" si="0"/>
         <v>2006</v>
       </c>
-      <c r="F1" s="2">
-        <f t="shared" si="1"/>
+      <c r="F1" s="1">
+        <f t="shared" si="0"/>
         <v>2007</v>
       </c>
-      <c r="G1" s="2">
-        <f t="shared" si="1"/>
+      <c r="G1" s="1">
+        <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="H1" s="2">
-        <f t="shared" si="1"/>
+      <c r="H1" s="1">
+        <f t="shared" si="0"/>
         <v>2009</v>
       </c>
-      <c r="I1" s="2">
-        <f t="shared" si="1"/>
+      <c r="I1" s="1">
+        <f t="shared" si="0"/>
         <v>2010</v>
       </c>
-      <c r="J1" s="2">
-        <f t="shared" si="1"/>
+      <c r="J1" s="1">
+        <f t="shared" si="0"/>
         <v>2011</v>
       </c>
-      <c r="K1" s="2">
-        <f t="shared" si="1"/>
+      <c r="K1" s="1">
+        <f t="shared" si="0"/>
         <v>2012</v>
       </c>
-      <c r="L1" s="2">
-        <f t="shared" si="1"/>
+      <c r="L1" s="1">
+        <f t="shared" si="0"/>
         <v>2013</v>
       </c>
-      <c r="M1" s="2">
-        <f t="shared" si="1"/>
+      <c r="M1" s="1">
+        <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="N1" s="2">
-        <f t="shared" si="1"/>
+      <c r="N1" s="1">
+        <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="O1" s="2">
-        <f t="shared" si="1"/>
+      <c r="O1" s="1">
+        <f t="shared" si="0"/>
         <v>2016</v>
       </c>
-      <c r="P1" s="2">
-        <f t="shared" si="1"/>
+      <c r="P1" s="1">
+        <f t="shared" si="0"/>
         <v>2017</v>
       </c>
-      <c r="Q1" s="2">
-        <f t="shared" si="1"/>
+      <c r="Q1" s="1">
+        <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="R1" s="2">
-        <f t="shared" si="1"/>
+      <c r="R1" s="1">
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="S1" s="2">
-        <f t="shared" si="1"/>
+      <c r="S1" s="1">
+        <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="T1" s="2">
-        <f t="shared" si="1"/>
+      <c r="T1" s="1">
+        <f t="shared" si="0"/>
         <v>2021</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3261,82 +3280,82 @@
       <c r="C2" s="1">
         <v>56.6</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="12">
         <v>56.8</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="12">
         <v>56.9</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="12">
         <v>58.2</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="12">
         <v>58.9</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="12">
         <v>59.4</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="12">
         <v>57.1</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="12">
         <v>57.3</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="12">
         <v>57.2</v>
       </c>
-      <c r="L2" s="16">
+      <c r="L2" s="12">
         <v>57.5</v>
       </c>
-      <c r="M2" s="16">
+      <c r="M2" s="12">
         <v>63.8</v>
       </c>
-      <c r="N2" s="16">
+      <c r="N2" s="12">
         <v>46.6</v>
       </c>
-      <c r="O2" s="16">
-        <v>47.0</v>
-      </c>
-      <c r="P2" s="16">
+      <c r="O2" s="12">
+        <v>47</v>
+      </c>
+      <c r="P2" s="12">
         <v>47.6</v>
       </c>
-      <c r="Q2" s="16">
-        <v>48.0</v>
-      </c>
-      <c r="R2" s="16">
+      <c r="Q2" s="12">
+        <v>48</v>
+      </c>
+      <c r="R2" s="12">
         <v>48.4</v>
       </c>
-      <c r="S2" s="16">
-        <v>48.0</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="S2" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="1">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="H3" s="1">
         <v>78.2</v>
       </c>
       <c r="I3" s="1">
-        <v>77.9</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="J3" s="1">
         <v>83.9</v>
       </c>
       <c r="K3" s="1">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="L3" s="1">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="M3" s="1">
         <v>80.3</v>
       </c>
       <c r="N3" s="1">
-        <v>80.4</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="O3" s="1">
         <v>78.5</v>
@@ -3354,12 +3373,12 @@
         <v>71.7</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M4" s="1">
-        <v>72.1</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="N4" s="1">
         <v>72.2</v>
@@ -3374,18 +3393,18 @@
         <v>71.7</v>
       </c>
       <c r="R4" s="1">
-        <v>71.6</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="S4" s="1">
-        <v>70.4</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>70.400000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="1">
-        <v>39.2</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="G5" s="1">
         <v>42.1</v>
@@ -3418,13 +3437,13 @@
         <v>38.1</v>
       </c>
       <c r="Q5" s="1">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="R5" s="1">
         <v>37.5</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -3444,10 +3463,10 @@
         <v>62.3</v>
       </c>
       <c r="J6" s="1">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="K6" s="1">
-        <v>64.9</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="L6" s="1">
         <v>63.7</v>
@@ -3477,224 +3496,225 @@
         <v>64.7</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L7" s="1">
-        <v>75.1</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="M7" s="1">
-        <v>38.7</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="N7" s="1">
         <v>41.6</v>
       </c>
       <c r="O7" s="1">
-        <v>40.8</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="P7" s="1">
-        <v>37.7</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="Q7" s="1">
         <v>32.4</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="1">
         <v>85.9</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="1">
         <v>59.4</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="1">
         <v>55.1</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="1">
         <v>56.5</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="1">
         <v>57.3</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="Q9" s="1">
         <v>57.7</v>
       </c>
-      <c r="R9" s="9">
+      <c r="R9" s="1">
         <v>55.6</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="1">
         <v>74.8</v>
       </c>
-      <c r="J10" s="9">
-        <v>72.0</v>
-      </c>
-      <c r="M10" s="9">
+      <c r="J10" s="1">
+        <v>72</v>
+      </c>
+      <c r="M10" s="1">
         <v>71.8</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="1">
         <v>97.3</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="1">
         <v>97.3</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="1">
         <v>97.2</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="1">
         <v>97.2</v>
       </c>
-      <c r="M11" s="9">
-        <v>97.0</v>
-      </c>
-      <c r="N11" s="9">
+      <c r="M11" s="1">
+        <v>97</v>
+      </c>
+      <c r="N11" s="1">
         <v>96.7</v>
       </c>
-      <c r="O11" s="9">
-        <v>97.0</v>
-      </c>
-      <c r="P11" s="9">
+      <c r="O11" s="1">
+        <v>97</v>
+      </c>
+      <c r="P11" s="1">
         <v>96.8</v>
       </c>
-      <c r="Q11" s="9">
-        <v>97.0</v>
-      </c>
-      <c r="R11" s="9">
+      <c r="Q11" s="1">
+        <v>97</v>
+      </c>
+      <c r="R11" s="1">
         <v>96.9</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="1">
         <v>87.4</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="1">
         <v>82.9</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="Q12" s="1">
         <v>82.4</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
-        <v>2003.0</v>
-      </c>
-      <c r="C1" s="2">
-        <f t="shared" ref="C1:T1" si="1">B1+1</f>
+        <v>2003</v>
+      </c>
+      <c r="C1" s="1">
+        <f t="shared" ref="C1:T1" si="0">B1+1</f>
         <v>2004</v>
       </c>
-      <c r="D1" s="2">
-        <f t="shared" si="1"/>
+      <c r="D1" s="1">
+        <f t="shared" si="0"/>
         <v>2005</v>
       </c>
-      <c r="E1" s="2">
-        <f t="shared" si="1"/>
+      <c r="E1" s="1">
+        <f t="shared" si="0"/>
         <v>2006</v>
       </c>
-      <c r="F1" s="2">
-        <f t="shared" si="1"/>
+      <c r="F1" s="1">
+        <f t="shared" si="0"/>
         <v>2007</v>
       </c>
-      <c r="G1" s="2">
-        <f t="shared" si="1"/>
+      <c r="G1" s="1">
+        <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="H1" s="2">
-        <f t="shared" si="1"/>
+      <c r="H1" s="1">
+        <f t="shared" si="0"/>
         <v>2009</v>
       </c>
-      <c r="I1" s="2">
-        <f t="shared" si="1"/>
+      <c r="I1" s="1">
+        <f t="shared" si="0"/>
         <v>2010</v>
       </c>
-      <c r="J1" s="2">
-        <f t="shared" si="1"/>
+      <c r="J1" s="1">
+        <f t="shared" si="0"/>
         <v>2011</v>
       </c>
-      <c r="K1" s="2">
-        <f t="shared" si="1"/>
+      <c r="K1" s="1">
+        <f t="shared" si="0"/>
         <v>2012</v>
       </c>
-      <c r="L1" s="2">
-        <f t="shared" si="1"/>
+      <c r="L1" s="1">
+        <f t="shared" si="0"/>
         <v>2013</v>
       </c>
-      <c r="M1" s="2">
-        <f t="shared" si="1"/>
+      <c r="M1" s="1">
+        <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="N1" s="2">
-        <f t="shared" si="1"/>
+      <c r="N1" s="1">
+        <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="O1" s="2">
-        <f t="shared" si="1"/>
+      <c r="O1" s="1">
+        <f t="shared" si="0"/>
         <v>2016</v>
       </c>
-      <c r="P1" s="2">
-        <f t="shared" si="1"/>
+      <c r="P1" s="1">
+        <f t="shared" si="0"/>
         <v>2017</v>
       </c>
-      <c r="Q1" s="2">
-        <f t="shared" si="1"/>
+      <c r="Q1" s="1">
+        <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="R1" s="2">
-        <f t="shared" si="1"/>
+      <c r="R1" s="1">
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="S1" s="2">
-        <f t="shared" si="1"/>
+      <c r="S1" s="1">
+        <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="T1" s="2">
-        <f t="shared" si="1"/>
+      <c r="T1" s="1">
+        <f t="shared" si="0"/>
         <v>2021</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="1">
-        <v>35.7</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3708,7 +3728,7 @@
         <v>48.2</v>
       </c>
       <c r="P3" s="1">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="Q3" s="1">
         <v>44.1</v>
@@ -3720,7 +3740,7 @@
         <v>42.8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -3740,13 +3760,13 @@
         <v>31.5</v>
       </c>
       <c r="G4" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="H4" s="1">
         <v>32.6</v>
       </c>
       <c r="I4" s="1">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="J4" s="1">
         <v>33.4</v>
@@ -3755,31 +3775,31 @@
         <v>33.6</v>
       </c>
       <c r="L4" s="1">
-        <v>34.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="M4" s="1">
         <v>36.6</v>
       </c>
       <c r="N4" s="1">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="O4" s="1">
-        <v>37.3</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="P4" s="1">
-        <v>37.8</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="Q4" s="1">
-        <v>38.3</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="R4" s="1">
         <v>38.9</v>
       </c>
       <c r="S4" s="1">
-        <v>38.2</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>38.200000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3787,7 +3807,7 @@
         <v>41.4</v>
       </c>
       <c r="G5" s="1">
-        <v>39.8</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="H5" s="1">
         <v>39.9</v>
@@ -3796,7 +3816,7 @@
         <v>39.4</v>
       </c>
       <c r="J5" s="1">
-        <v>39.3</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="K5" s="1">
         <v>39.1</v>
@@ -3805,10 +3825,10 @@
         <v>39.1</v>
       </c>
       <c r="M5" s="1">
-        <v>39.8</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="N5" s="1">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="O5" s="1">
         <v>41.9</v>
@@ -3817,989 +3837,991 @@
         <v>42.4</v>
       </c>
       <c r="Q5" s="1">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="R5" s="1">
-        <v>35.3</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="S5" s="1">
-        <v>34.2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="8" t="s">
+        <v>34.200000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="1">
         <v>18.7</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="1">
         <v>18.5</v>
       </c>
-      <c r="M6" s="9">
-        <v>18.1</v>
-      </c>
-      <c r="N6" s="9">
+      <c r="M6" s="1">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="N6" s="1">
         <v>17.8</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="1">
         <v>17.3</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="1">
         <v>17.2</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="1">
         <v>16.5</v>
       </c>
-      <c r="R6" s="9">
-        <v>16.1</v>
-      </c>
-      <c r="S6" s="9">
-        <v>16.4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="9" t="s">
+      <c r="R6" s="1">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="S6" s="1">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="1">
         <v>17.3</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="1">
         <v>14.9</v>
       </c>
-      <c r="K7" s="9">
-        <v>16.0</v>
-      </c>
-      <c r="L7" s="9">
-        <v>17.6</v>
-      </c>
-      <c r="N7" s="9">
+      <c r="K7" s="1">
+        <v>16</v>
+      </c>
+      <c r="L7" s="1">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="N7" s="1">
         <v>20.3</v>
       </c>
-      <c r="O7" s="9">
-        <v>34.3</v>
-      </c>
-      <c r="P7" s="9">
+      <c r="O7" s="1">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="P7" s="1">
         <v>31.8</v>
       </c>
-      <c r="Q7" s="9">
-        <v>28.0</v>
-      </c>
-      <c r="R7" s="9">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="Q7" s="1">
+        <v>28</v>
+      </c>
+      <c r="R7" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="1">
         <v>56.2</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="1">
         <v>56.2</v>
       </c>
-      <c r="K8" s="9">
-        <v>58.0</v>
-      </c>
-      <c r="L8" s="9">
+      <c r="K8" s="1">
+        <v>58</v>
+      </c>
+      <c r="L8" s="1">
         <v>59.1</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="1">
         <v>60.3</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="1">
         <v>61.4</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="1">
         <v>59.8</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="1">
         <v>60.9</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="1">
         <v>61.1</v>
       </c>
-      <c r="R8" s="9">
+      <c r="R8" s="1">
         <v>60.5</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
-        <v>2003.0</v>
-      </c>
-      <c r="C1" s="2">
-        <f t="shared" ref="C1:T1" si="1">B1+1</f>
+        <v>2003</v>
+      </c>
+      <c r="C1" s="1">
+        <f t="shared" ref="C1:T1" si="0">B1+1</f>
         <v>2004</v>
       </c>
-      <c r="D1" s="2">
-        <f t="shared" si="1"/>
+      <c r="D1" s="1">
+        <f t="shared" si="0"/>
         <v>2005</v>
       </c>
-      <c r="E1" s="2">
-        <f t="shared" si="1"/>
+      <c r="E1" s="1">
+        <f t="shared" si="0"/>
         <v>2006</v>
       </c>
-      <c r="F1" s="2">
-        <f t="shared" si="1"/>
+      <c r="F1" s="1">
+        <f t="shared" si="0"/>
         <v>2007</v>
       </c>
-      <c r="G1" s="2">
-        <f t="shared" si="1"/>
+      <c r="G1" s="1">
+        <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="H1" s="2">
-        <f t="shared" si="1"/>
+      <c r="H1" s="1">
+        <f t="shared" si="0"/>
         <v>2009</v>
       </c>
-      <c r="I1" s="2">
-        <f t="shared" si="1"/>
+      <c r="I1" s="1">
+        <f t="shared" si="0"/>
         <v>2010</v>
       </c>
-      <c r="J1" s="2">
-        <f t="shared" si="1"/>
+      <c r="J1" s="1">
+        <f t="shared" si="0"/>
         <v>2011</v>
       </c>
-      <c r="K1" s="2">
-        <f t="shared" si="1"/>
+      <c r="K1" s="1">
+        <f t="shared" si="0"/>
         <v>2012</v>
       </c>
-      <c r="L1" s="2">
-        <f t="shared" si="1"/>
+      <c r="L1" s="1">
+        <f t="shared" si="0"/>
         <v>2013</v>
       </c>
-      <c r="M1" s="2">
-        <f t="shared" si="1"/>
+      <c r="M1" s="1">
+        <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="N1" s="2">
-        <f t="shared" si="1"/>
+      <c r="N1" s="1">
+        <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="O1" s="2">
-        <f t="shared" si="1"/>
+      <c r="O1" s="1">
+        <f t="shared" si="0"/>
         <v>2016</v>
       </c>
-      <c r="P1" s="2">
-        <f t="shared" si="1"/>
+      <c r="P1" s="1">
+        <f t="shared" si="0"/>
         <v>2017</v>
       </c>
-      <c r="Q1" s="2">
-        <f t="shared" si="1"/>
+      <c r="Q1" s="1">
+        <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="R1" s="2">
-        <f t="shared" si="1"/>
+      <c r="R1" s="1">
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="S1" s="2">
-        <f t="shared" si="1"/>
+      <c r="S1" s="1">
+        <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="T1" s="2">
-        <f t="shared" si="1"/>
+      <c r="T1" s="1">
+        <f t="shared" si="0"/>
         <v>2021</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="16">
-        <v>37231.0</v>
-      </c>
-      <c r="G2" s="16">
-        <v>41626.0</v>
-      </c>
-      <c r="H2" s="16">
-        <v>40178.0</v>
-      </c>
-      <c r="I2" s="16">
-        <v>43823.0</v>
-      </c>
-      <c r="J2" s="16">
-        <v>54025.0</v>
-      </c>
-      <c r="K2" s="16">
-        <v>60554.0</v>
-      </c>
-      <c r="L2" s="16">
-        <v>66977.0</v>
-      </c>
-      <c r="M2" s="16">
-        <v>74463.0</v>
-      </c>
-      <c r="N2" s="16">
-        <v>70263.0</v>
-      </c>
-      <c r="O2" s="16">
-        <v>72254.0</v>
-      </c>
-      <c r="P2" s="16">
-        <v>73402.0</v>
-      </c>
-      <c r="Q2" s="16">
-        <v>73756.0</v>
-      </c>
-      <c r="R2" s="16">
-        <v>67195.0</v>
-      </c>
-      <c r="S2" s="16">
-        <v>76019.0</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="F2" s="12">
+        <v>37231</v>
+      </c>
+      <c r="G2" s="12">
+        <v>41626</v>
+      </c>
+      <c r="H2" s="12">
+        <v>40178</v>
+      </c>
+      <c r="I2" s="12">
+        <v>43823</v>
+      </c>
+      <c r="J2" s="12">
+        <v>54025</v>
+      </c>
+      <c r="K2" s="12">
+        <v>60554</v>
+      </c>
+      <c r="L2" s="12">
+        <v>66977</v>
+      </c>
+      <c r="M2" s="12">
+        <v>74463</v>
+      </c>
+      <c r="N2" s="12">
+        <v>70263</v>
+      </c>
+      <c r="O2" s="12">
+        <v>72254</v>
+      </c>
+      <c r="P2" s="12">
+        <v>73402</v>
+      </c>
+      <c r="Q2" s="12">
+        <v>73756</v>
+      </c>
+      <c r="R2" s="12">
+        <v>67195</v>
+      </c>
+      <c r="S2" s="12">
+        <v>76019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="16">
-        <v>5697.0</v>
-      </c>
-      <c r="H3" s="16">
-        <v>5563.0</v>
-      </c>
-      <c r="I3" s="16">
-        <v>7097.0</v>
-      </c>
-      <c r="J3" s="16">
-        <v>8006.0</v>
-      </c>
-      <c r="K3" s="16">
-        <v>9324.0</v>
-      </c>
-      <c r="L3" s="16">
-        <v>8894.0</v>
-      </c>
-      <c r="M3" s="16">
-        <v>9529.0</v>
-      </c>
-      <c r="N3" s="16">
-        <v>9788.0</v>
-      </c>
-      <c r="O3" s="16">
-        <v>9975.0</v>
-      </c>
-      <c r="P3" s="16">
-        <v>10660.0</v>
-      </c>
-      <c r="Q3" s="16">
-        <v>10957.0</v>
-      </c>
-      <c r="R3" s="16">
-        <v>11604.0</v>
-      </c>
-      <c r="S3" s="19">
-        <v>10304.3</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="G3" s="12">
+        <v>5697</v>
+      </c>
+      <c r="H3" s="12">
+        <v>5563</v>
+      </c>
+      <c r="I3" s="12">
+        <v>7097</v>
+      </c>
+      <c r="J3" s="12">
+        <v>8006</v>
+      </c>
+      <c r="K3" s="12">
+        <v>9324</v>
+      </c>
+      <c r="L3" s="12">
+        <v>8894</v>
+      </c>
+      <c r="M3" s="12">
+        <v>9529</v>
+      </c>
+      <c r="N3" s="12">
+        <v>9788</v>
+      </c>
+      <c r="O3" s="12">
+        <v>9975</v>
+      </c>
+      <c r="P3" s="12">
+        <v>10660</v>
+      </c>
+      <c r="Q3" s="12">
+        <v>10957</v>
+      </c>
+      <c r="R3" s="12">
+        <v>11604</v>
+      </c>
+      <c r="S3" s="6">
+        <v>10304.299999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="16">
-        <v>36057.0</v>
-      </c>
-      <c r="J4" s="16">
-        <v>43722.0</v>
-      </c>
-      <c r="K4" s="16">
-        <v>49446.0</v>
-      </c>
-      <c r="L4" s="16">
-        <v>52756.0</v>
-      </c>
-      <c r="M4" s="16">
-        <v>56149.0</v>
-      </c>
-      <c r="N4" s="16">
-        <v>53765.0</v>
-      </c>
-      <c r="O4" s="16">
-        <v>53919.0</v>
-      </c>
-      <c r="P4" s="16">
-        <v>60352.0</v>
-      </c>
-      <c r="Q4" s="16">
-        <v>57301.0</v>
-      </c>
-      <c r="R4" s="16">
-        <v>64016.0</v>
-      </c>
-      <c r="S4" s="16">
-        <v>68398.0</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="I4" s="12">
+        <v>36057</v>
+      </c>
+      <c r="J4" s="12">
+        <v>43722</v>
+      </c>
+      <c r="K4" s="12">
+        <v>49446</v>
+      </c>
+      <c r="L4" s="12">
+        <v>52756</v>
+      </c>
+      <c r="M4" s="12">
+        <v>56149</v>
+      </c>
+      <c r="N4" s="12">
+        <v>53765</v>
+      </c>
+      <c r="O4" s="12">
+        <v>53919</v>
+      </c>
+      <c r="P4" s="12">
+        <v>60352</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>57301</v>
+      </c>
+      <c r="R4" s="12">
+        <v>64016</v>
+      </c>
+      <c r="S4" s="12">
+        <v>68398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="16">
-        <v>77867.0</v>
-      </c>
-      <c r="G5" s="16">
-        <v>83091.0</v>
-      </c>
-      <c r="H5" s="16">
-        <v>75400.0</v>
-      </c>
-      <c r="I5" s="16">
-        <v>113428.0</v>
-      </c>
-      <c r="J5" s="16">
-        <v>140105.0</v>
-      </c>
-      <c r="K5" s="16">
-        <v>148846.0</v>
-      </c>
-      <c r="L5" s="16">
-        <v>166745.0</v>
-      </c>
-      <c r="M5" s="16">
-        <v>168090.0</v>
-      </c>
-      <c r="N5" s="16">
-        <v>174449.0</v>
-      </c>
-      <c r="O5" s="16">
-        <v>172698.0</v>
-      </c>
-      <c r="P5" s="16">
-        <v>185278.0</v>
-      </c>
-      <c r="Q5" s="16">
-        <v>203029.0</v>
-      </c>
-      <c r="R5" s="16">
-        <v>211978.0</v>
-      </c>
-      <c r="S5" s="16">
-        <v>168892.0</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="F5" s="12">
+        <v>77867</v>
+      </c>
+      <c r="G5" s="12">
+        <v>83091</v>
+      </c>
+      <c r="H5" s="12">
+        <v>75400</v>
+      </c>
+      <c r="I5" s="12">
+        <v>113428</v>
+      </c>
+      <c r="J5" s="12">
+        <v>140105</v>
+      </c>
+      <c r="K5" s="12">
+        <v>148846</v>
+      </c>
+      <c r="L5" s="12">
+        <v>166745</v>
+      </c>
+      <c r="M5" s="12">
+        <v>168090</v>
+      </c>
+      <c r="N5" s="12">
+        <v>174449</v>
+      </c>
+      <c r="O5" s="12">
+        <v>172698</v>
+      </c>
+      <c r="P5" s="12">
+        <v>185278</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>203029</v>
+      </c>
+      <c r="R5" s="12">
+        <v>211978</v>
+      </c>
+      <c r="S5" s="12">
+        <v>168892</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S6" s="16">
-        <v>78605.0</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="S6" s="12">
+        <v>78605</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S7" s="16">
-        <v>3986.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="9" t="s">
+      <c r="S7" s="12">
+        <v>3986</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="20">
-        <v>9478.0</v>
-      </c>
-      <c r="J8" s="20">
-        <v>9594.0</v>
-      </c>
-      <c r="K8" s="20">
-        <v>12237.0</v>
-      </c>
-      <c r="L8" s="20">
-        <v>14445.0</v>
-      </c>
-      <c r="M8" s="20">
-        <v>16904.0</v>
-      </c>
-      <c r="N8" s="20">
-        <v>18260.0</v>
-      </c>
-      <c r="O8" s="20">
-        <v>21024.0</v>
-      </c>
-      <c r="P8" s="20">
-        <v>23295.0</v>
-      </c>
-      <c r="Q8" s="20">
-        <v>21273.0</v>
-      </c>
-      <c r="R8" s="20">
-        <v>24638.0</v>
-      </c>
-      <c r="S8" s="20">
-        <v>26802.0</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="I8" s="12">
+        <v>9478</v>
+      </c>
+      <c r="J8" s="12">
+        <v>9594</v>
+      </c>
+      <c r="K8" s="12">
+        <v>12237</v>
+      </c>
+      <c r="L8" s="12">
+        <v>14445</v>
+      </c>
+      <c r="M8" s="12">
+        <v>16904</v>
+      </c>
+      <c r="N8" s="12">
+        <v>18260</v>
+      </c>
+      <c r="O8" s="12">
+        <v>21024</v>
+      </c>
+      <c r="P8" s="12">
+        <v>23295</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>21273</v>
+      </c>
+      <c r="R8" s="12">
+        <v>24638</v>
+      </c>
+      <c r="S8" s="12">
+        <v>26802</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="Q9" s="1">
         <v>2.4</v>
       </c>
-      <c r="R9" s="9">
+      <c r="R9" s="1">
         <v>6.7</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="20">
-        <v>50525.0</v>
-      </c>
-      <c r="K10" s="20">
-        <v>54436.0</v>
-      </c>
-      <c r="L10" s="20">
-        <v>49949.0</v>
-      </c>
-      <c r="M10" s="20">
-        <v>61359.0</v>
-      </c>
-      <c r="N10" s="20">
-        <v>57301.0</v>
-      </c>
-      <c r="O10" s="20">
-        <v>63784.0</v>
-      </c>
-      <c r="P10" s="20">
-        <v>69559.0</v>
-      </c>
-      <c r="Q10" s="20">
-        <v>71310.0</v>
-      </c>
-      <c r="R10" s="20">
-        <v>79947.0</v>
-      </c>
-      <c r="S10" s="20">
-        <v>77365.0</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="J10" s="12">
+        <v>50525</v>
+      </c>
+      <c r="K10" s="12">
+        <v>54436</v>
+      </c>
+      <c r="L10" s="12">
+        <v>49949</v>
+      </c>
+      <c r="M10" s="12">
+        <v>61359</v>
+      </c>
+      <c r="N10" s="12">
+        <v>57301</v>
+      </c>
+      <c r="O10" s="12">
+        <v>63784</v>
+      </c>
+      <c r="P10" s="12">
+        <v>69559</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>71310</v>
+      </c>
+      <c r="R10" s="12">
+        <v>79947</v>
+      </c>
+      <c r="S10" s="12">
+        <v>77365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N11" s="20">
-        <v>1831.0</v>
-      </c>
-      <c r="O11" s="20">
-        <v>1710.0</v>
-      </c>
-      <c r="P11" s="20">
-        <v>1922.0</v>
-      </c>
-      <c r="Q11" s="20">
-        <v>1669.0</v>
-      </c>
-      <c r="R11" s="20">
-        <v>1592.0</v>
-      </c>
-      <c r="S11" s="20">
-        <v>1696.0</v>
+      <c r="N11" s="12">
+        <v>1831</v>
+      </c>
+      <c r="O11" s="12">
+        <v>1710</v>
+      </c>
+      <c r="P11" s="12">
+        <v>1922</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>1669</v>
+      </c>
+      <c r="R11" s="12">
+        <v>1592</v>
+      </c>
+      <c r="S11" s="12">
+        <v>1696</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
-        <v>2003.0</v>
-      </c>
-      <c r="C1" s="2">
-        <f t="shared" ref="C1:T1" si="1">B1+1</f>
+        <v>2003</v>
+      </c>
+      <c r="C1" s="1">
+        <f t="shared" ref="C1:T1" si="0">B1+1</f>
         <v>2004</v>
       </c>
-      <c r="D1" s="2">
-        <f t="shared" si="1"/>
+      <c r="D1" s="1">
+        <f t="shared" si="0"/>
         <v>2005</v>
       </c>
-      <c r="E1" s="2">
-        <f t="shared" si="1"/>
+      <c r="E1" s="1">
+        <f t="shared" si="0"/>
         <v>2006</v>
       </c>
-      <c r="F1" s="2">
-        <f t="shared" si="1"/>
+      <c r="F1" s="1">
+        <f t="shared" si="0"/>
         <v>2007</v>
       </c>
-      <c r="G1" s="2">
-        <f t="shared" si="1"/>
+      <c r="G1" s="1">
+        <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="H1" s="2">
-        <f t="shared" si="1"/>
+      <c r="H1" s="1">
+        <f t="shared" si="0"/>
         <v>2009</v>
       </c>
-      <c r="I1" s="2">
-        <f t="shared" si="1"/>
+      <c r="I1" s="1">
+        <f t="shared" si="0"/>
         <v>2010</v>
       </c>
-      <c r="J1" s="2">
-        <f t="shared" si="1"/>
+      <c r="J1" s="1">
+        <f t="shared" si="0"/>
         <v>2011</v>
       </c>
-      <c r="K1" s="2">
-        <f t="shared" si="1"/>
+      <c r="K1" s="1">
+        <f t="shared" si="0"/>
         <v>2012</v>
       </c>
-      <c r="L1" s="2">
-        <f t="shared" si="1"/>
+      <c r="L1" s="1">
+        <f t="shared" si="0"/>
         <v>2013</v>
       </c>
-      <c r="M1" s="2">
-        <f t="shared" si="1"/>
+      <c r="M1" s="1">
+        <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="N1" s="2">
-        <f t="shared" si="1"/>
+      <c r="N1" s="1">
+        <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="O1" s="2">
-        <f t="shared" si="1"/>
+      <c r="O1" s="1">
+        <f t="shared" si="0"/>
         <v>2016</v>
       </c>
-      <c r="P1" s="2">
-        <f t="shared" si="1"/>
+      <c r="P1" s="1">
+        <f t="shared" si="0"/>
         <v>2017</v>
       </c>
-      <c r="Q1" s="2">
-        <f t="shared" si="1"/>
+      <c r="Q1" s="1">
+        <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="R1" s="2">
-        <f t="shared" si="1"/>
+      <c r="R1" s="1">
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="S1" s="2">
-        <f t="shared" si="1"/>
+      <c r="S1" s="1">
+        <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="T1" s="2">
-        <f t="shared" si="1"/>
+      <c r="T1" s="1">
+        <f t="shared" si="0"/>
         <v>2021</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>750.0</v>
+        <v>750</v>
       </c>
       <c r="G2" s="1">
-        <v>657.0</v>
+        <v>657</v>
       </c>
       <c r="H2" s="1">
-        <v>612.0</v>
+        <v>612</v>
       </c>
       <c r="I2" s="1">
-        <v>179.0</v>
+        <v>179</v>
       </c>
       <c r="J2" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="K2" s="1">
-        <v>369.0</v>
+        <v>369</v>
       </c>
       <c r="L2" s="1">
-        <v>416.0</v>
+        <v>416</v>
       </c>
       <c r="M2" s="1">
-        <v>425.0</v>
+        <v>425</v>
       </c>
       <c r="N2" s="1">
-        <v>324.0</v>
+        <v>324</v>
       </c>
       <c r="O2" s="1">
-        <v>366.0</v>
+        <v>366</v>
       </c>
       <c r="P2" s="1">
-        <v>306.0</v>
+        <v>306</v>
       </c>
       <c r="Q2" s="1">
-        <v>335.0</v>
+        <v>335</v>
       </c>
       <c r="R2" s="1">
-        <v>367.0</v>
+        <v>367</v>
       </c>
       <c r="S2" s="1">
-        <v>327.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="1">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="I3" s="1">
-        <v>136.0</v>
+        <v>136</v>
       </c>
       <c r="J3" s="1">
-        <v>176.0</v>
+        <v>176</v>
       </c>
       <c r="K3" s="1">
-        <v>215.0</v>
+        <v>215</v>
       </c>
       <c r="L3" s="1">
-        <v>192.0</v>
-      </c>
-      <c r="M3" s="16">
-        <v>2918.0</v>
-      </c>
-      <c r="N3" s="16">
-        <v>6582.0</v>
-      </c>
-      <c r="O3" s="16">
-        <v>7684.0</v>
-      </c>
-      <c r="P3" s="16">
-        <v>8084.0</v>
-      </c>
-      <c r="Q3" s="16">
-        <v>10013.0</v>
-      </c>
-      <c r="R3" s="16">
-        <v>12024.0</v>
-      </c>
-      <c r="S3" s="16">
-        <v>4876.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>192</v>
+      </c>
+      <c r="M3" s="12">
+        <v>2918</v>
+      </c>
+      <c r="N3" s="12">
+        <v>6582</v>
+      </c>
+      <c r="O3" s="12">
+        <v>7684</v>
+      </c>
+      <c r="P3" s="12">
+        <v>8084</v>
+      </c>
+      <c r="Q3" s="12">
+        <v>10013</v>
+      </c>
+      <c r="R3" s="12">
+        <v>12024</v>
+      </c>
+      <c r="S3" s="12">
+        <v>4876</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="16">
-        <v>6259.0</v>
-      </c>
-      <c r="J4" s="16">
-        <v>7273.0</v>
-      </c>
-      <c r="K4" s="16">
-        <v>9245.0</v>
-      </c>
-      <c r="L4" s="16">
-        <v>9210.0</v>
-      </c>
-      <c r="M4" s="16">
-        <v>9374.0</v>
-      </c>
-      <c r="N4" s="16">
-        <v>9372.0</v>
-      </c>
-      <c r="O4" s="16">
-        <v>8675.0</v>
-      </c>
-      <c r="P4" s="16">
-        <v>9613.0</v>
-      </c>
-      <c r="Q4" s="16">
-        <v>9712.0</v>
-      </c>
-      <c r="R4" s="16">
-        <v>10921.0</v>
-      </c>
-      <c r="S4" s="16">
-        <v>10650.0</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="I4" s="12">
+        <v>6259</v>
+      </c>
+      <c r="J4" s="12">
+        <v>7273</v>
+      </c>
+      <c r="K4" s="12">
+        <v>9245</v>
+      </c>
+      <c r="L4" s="12">
+        <v>9210</v>
+      </c>
+      <c r="M4" s="12">
+        <v>9374</v>
+      </c>
+      <c r="N4" s="12">
+        <v>9372</v>
+      </c>
+      <c r="O4" s="12">
+        <v>8675</v>
+      </c>
+      <c r="P4" s="12">
+        <v>9613</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>9712</v>
+      </c>
+      <c r="R4" s="12">
+        <v>10921</v>
+      </c>
+      <c r="S4" s="12">
+        <v>10650</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="16">
-        <v>1252.0</v>
-      </c>
-      <c r="J6" s="16">
-        <v>1396.0</v>
-      </c>
-      <c r="K6" s="16">
-        <v>1750.0</v>
-      </c>
-      <c r="L6" s="16">
-        <v>2166.0</v>
-      </c>
-      <c r="M6" s="16">
-        <v>2505.0</v>
-      </c>
-      <c r="N6" s="16">
-        <v>2827.0</v>
-      </c>
-      <c r="O6" s="16">
-        <v>3236.0</v>
-      </c>
-      <c r="P6" s="16">
-        <v>3786.0</v>
-      </c>
-      <c r="Q6" s="16">
-        <v>4212.0</v>
-      </c>
-      <c r="R6" s="16">
-        <v>3270.0</v>
-      </c>
-      <c r="S6" s="16">
-        <v>3995.0</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="I6" s="12">
+        <v>1252</v>
+      </c>
+      <c r="J6" s="12">
+        <v>1396</v>
+      </c>
+      <c r="K6" s="12">
+        <v>1750</v>
+      </c>
+      <c r="L6" s="12">
+        <v>2166</v>
+      </c>
+      <c r="M6" s="12">
+        <v>2505</v>
+      </c>
+      <c r="N6" s="12">
+        <v>2827</v>
+      </c>
+      <c r="O6" s="12">
+        <v>3236</v>
+      </c>
+      <c r="P6" s="12">
+        <v>3786</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>4212</v>
+      </c>
+      <c r="R6" s="12">
+        <v>3270</v>
+      </c>
+      <c r="S6" s="12">
+        <v>3995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="1">
-        <v>977.0</v>
-      </c>
-      <c r="G7" s="16">
-        <v>1135.0</v>
-      </c>
-      <c r="H7" s="16">
-        <v>1866.0</v>
-      </c>
-      <c r="I7" s="16">
-        <v>2393.0</v>
-      </c>
-      <c r="J7" s="16">
-        <v>3410.0</v>
-      </c>
-      <c r="K7" s="16">
-        <v>3709.0</v>
-      </c>
-      <c r="L7" s="16">
-        <v>4230.0</v>
-      </c>
-      <c r="M7" s="16">
-        <v>4894.0</v>
-      </c>
-      <c r="N7" s="16">
-        <v>5815.0</v>
-      </c>
-      <c r="O7" s="16">
-        <v>6718.0</v>
-      </c>
-      <c r="P7" s="16">
-        <v>7253.0</v>
-      </c>
-      <c r="Q7" s="16">
-        <v>6611.0</v>
-      </c>
-      <c r="R7" s="16">
-        <v>6608.0</v>
-      </c>
-      <c r="S7" s="16">
-        <v>6247.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="9" t="s">
+        <v>977</v>
+      </c>
+      <c r="G7" s="12">
+        <v>1135</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1866</v>
+      </c>
+      <c r="I7" s="12">
+        <v>2393</v>
+      </c>
+      <c r="J7" s="12">
+        <v>3410</v>
+      </c>
+      <c r="K7" s="12">
+        <v>3709</v>
+      </c>
+      <c r="L7" s="12">
+        <v>4230</v>
+      </c>
+      <c r="M7" s="12">
+        <v>4894</v>
+      </c>
+      <c r="N7" s="12">
+        <v>5815</v>
+      </c>
+      <c r="O7" s="12">
+        <v>6718</v>
+      </c>
+      <c r="P7" s="12">
+        <v>7253</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>6611</v>
+      </c>
+      <c r="R7" s="12">
+        <v>6608</v>
+      </c>
+      <c r="S7" s="12">
+        <v>6247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="20">
-        <v>3364.0</v>
-      </c>
-      <c r="L8" s="20">
-        <v>4431.0</v>
-      </c>
-      <c r="M8" s="20">
-        <v>5226.0</v>
-      </c>
-      <c r="N8" s="20">
-        <v>5713.0</v>
-      </c>
-      <c r="O8" s="20">
-        <v>6743.0</v>
-      </c>
-      <c r="P8" s="20">
-        <v>7448.0</v>
-      </c>
-      <c r="Q8" s="20">
-        <v>7896.0</v>
-      </c>
-      <c r="R8" s="20">
-        <v>7912.0</v>
-      </c>
-      <c r="S8" s="20">
-        <v>7892.0</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="K8" s="12">
+        <v>3364</v>
+      </c>
+      <c r="L8" s="12">
+        <v>4431</v>
+      </c>
+      <c r="M8" s="12">
+        <v>5226</v>
+      </c>
+      <c r="N8" s="12">
+        <v>5713</v>
+      </c>
+      <c r="O8" s="12">
+        <v>6743</v>
+      </c>
+      <c r="P8" s="12">
+        <v>7448</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>7896</v>
+      </c>
+      <c r="R8" s="12">
+        <v>7912</v>
+      </c>
+      <c r="S8" s="12">
+        <v>7892</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="20">
-        <v>1095.0</v>
-      </c>
-      <c r="J9" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="K9" s="20">
-        <v>1402.0</v>
-      </c>
-      <c r="L9" s="20">
-        <v>1430.0</v>
-      </c>
-      <c r="M9" s="20">
-        <v>1531.0</v>
-      </c>
-      <c r="N9" s="20">
-        <v>1331.0</v>
-      </c>
-      <c r="O9" s="20">
-        <v>1159.0</v>
-      </c>
-      <c r="P9" s="20">
-        <v>1174.0</v>
-      </c>
-      <c r="Q9" s="20">
-        <v>1134.0</v>
-      </c>
-      <c r="R9" s="20">
-        <v>1139.0</v>
-      </c>
-      <c r="S9" s="20">
-        <v>1180.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="s">
+      <c r="I9" s="12">
+        <v>1095</v>
+      </c>
+      <c r="J9" s="12">
+        <v>1201</v>
+      </c>
+      <c r="K9" s="12">
+        <v>1402</v>
+      </c>
+      <c r="L9" s="12">
+        <v>1430</v>
+      </c>
+      <c r="M9" s="12">
+        <v>1531</v>
+      </c>
+      <c r="N9" s="12">
+        <v>1331</v>
+      </c>
+      <c r="O9" s="12">
+        <v>1159</v>
+      </c>
+      <c r="P9" s="12">
+        <v>1174</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>1134</v>
+      </c>
+      <c r="R9" s="12">
+        <v>1139</v>
+      </c>
+      <c r="S9" s="12">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="9">
-        <v>154.0</v>
-      </c>
-      <c r="G10" s="9">
-        <v>277.0</v>
-      </c>
-      <c r="H10" s="9">
-        <v>299.0</v>
-      </c>
-      <c r="I10" s="9">
-        <v>426.0</v>
-      </c>
-      <c r="J10" s="9">
-        <v>642.0</v>
-      </c>
-      <c r="K10" s="9">
-        <v>886.0</v>
-      </c>
-      <c r="L10" s="20">
-        <v>1317.0</v>
-      </c>
-      <c r="M10" s="20">
-        <v>1791.0</v>
-      </c>
-      <c r="N10" s="20">
-        <v>3107.0</v>
-      </c>
-      <c r="O10" s="20">
-        <v>3250.0</v>
-      </c>
-      <c r="P10" s="20">
-        <v>4395.0</v>
-      </c>
-      <c r="Q10" s="20">
-        <v>5586.0</v>
-      </c>
-      <c r="R10" s="20">
-        <v>7475.0</v>
-      </c>
-      <c r="S10" s="20">
-        <v>7084.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="9" t="s">
+      <c r="F10" s="1">
+        <v>154</v>
+      </c>
+      <c r="G10" s="1">
+        <v>277</v>
+      </c>
+      <c r="H10" s="1">
+        <v>299</v>
+      </c>
+      <c r="I10" s="1">
+        <v>426</v>
+      </c>
+      <c r="J10" s="1">
+        <v>642</v>
+      </c>
+      <c r="K10" s="1">
+        <v>886</v>
+      </c>
+      <c r="L10" s="12">
+        <v>1317</v>
+      </c>
+      <c r="M10" s="12">
+        <v>1791</v>
+      </c>
+      <c r="N10" s="12">
+        <v>3107</v>
+      </c>
+      <c r="O10" s="12">
+        <v>3250</v>
+      </c>
+      <c r="P10" s="12">
+        <v>4395</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>5586</v>
+      </c>
+      <c r="R10" s="12">
+        <v>7475</v>
+      </c>
+      <c r="S10" s="12">
+        <v>7084</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O11" s="20">
-        <v>31492.0</v>
-      </c>
-      <c r="P11" s="20">
-        <v>33366.0</v>
-      </c>
-      <c r="Q11" s="20">
-        <v>32980.0</v>
-      </c>
-      <c r="R11" s="20">
-        <v>36199.0</v>
-      </c>
-      <c r="S11" s="20">
-        <v>30343.0</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="O11" s="12">
+        <v>31492</v>
+      </c>
+      <c r="P11" s="12">
+        <v>33366</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>32980</v>
+      </c>
+      <c r="R11" s="12">
+        <v>36199</v>
+      </c>
+      <c r="S11" s="12">
+        <v>30343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="9">
-        <v>6.0</v>
-      </c>
-      <c r="J12" s="9">
-        <v>12.0</v>
-      </c>
-      <c r="K12" s="9">
-        <v>13.0</v>
-      </c>
-      <c r="L12" s="9">
-        <v>57.0</v>
-      </c>
-      <c r="M12" s="9">
-        <v>53.0</v>
-      </c>
-      <c r="N12" s="9">
-        <v>103.0</v>
-      </c>
-      <c r="O12" s="9">
-        <v>179.0</v>
-      </c>
-      <c r="P12" s="9">
-        <v>265.0</v>
-      </c>
-      <c r="Q12" s="9">
-        <v>564.0</v>
-      </c>
-      <c r="R12" s="9">
-        <v>686.0</v>
-      </c>
-      <c r="S12" s="9">
-        <v>583.0</v>
+      <c r="I12" s="1">
+        <v>6</v>
+      </c>
+      <c r="J12" s="1">
+        <v>12</v>
+      </c>
+      <c r="K12" s="1">
+        <v>13</v>
+      </c>
+      <c r="L12" s="1">
+        <v>57</v>
+      </c>
+      <c r="M12" s="1">
+        <v>53</v>
+      </c>
+      <c r="N12" s="1">
+        <v>103</v>
+      </c>
+      <c r="O12" s="1">
+        <v>179</v>
+      </c>
+      <c r="P12" s="1">
+        <v>265</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>564</v>
+      </c>
+      <c r="R12" s="1">
+        <v>686</v>
+      </c>
+      <c r="S12" s="1">
+        <v>583</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>